--- a/web/public/批量添加用户模版.xlsx
+++ b/web/public/批量添加用户模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="28130" windowHeight="13130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -266,8 +266,41 @@
       </rPr>
       <t xml:space="preserve">
 1：启用
-2：停用
-3：过期
+0：停用
+2：过期
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户组</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:不允许为空，多个组用逗号分隔
 </t>
     </r>
     <r>
@@ -446,6 +479,9 @@
     <t>124qwe</t>
   </si>
   <si>
+    <t>ops,123</t>
+  </si>
+  <si>
     <t>test13</t>
   </si>
   <si>
@@ -458,7 +494,7 @@
     <t>ASDASDFAFAFAWSFSDAFW</t>
   </si>
   <si>
-    <t>测试组</t>
+    <t>123,12</t>
   </si>
 </sst>
 </file>
@@ -1515,25 +1551,26 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.62727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.2545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1818181818182" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1272727272727" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6272727272727" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.72727272727273" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3636363636364" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:16">
+    <row r="1" ht="27" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1612,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" ht="15" spans="1:16">
+    <row r="2" ht="14.5" spans="1:16">
       <c r="A2" s="4">
         <v>11</v>
       </c>
@@ -1613,7 +1650,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" ht="15" spans="1:16">
+    <row r="3" ht="29" spans="1:16">
       <c r="A3" s="4">
         <v>12</v>
       </c>
@@ -1635,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -1649,33 +1686,33 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" ht="15" spans="1:16">
+    <row r="4" ht="29" spans="1:16">
       <c r="A4" s="4">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4">
         <v>2</v>
@@ -1689,7 +1726,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" ht="15" spans="1:16">
+    <row r="5" ht="14.5" spans="1:16">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1707,7 +1744,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" ht="15" spans="1:16">
+    <row r="6" ht="14.5" spans="1:16">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1725,7 +1762,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" ht="15" spans="1:16">
+    <row r="7" ht="14.5" spans="1:16">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1743,7 +1780,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" ht="15" spans="1:16">
+    <row r="8" ht="14.5" spans="1:16">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1761,7 +1798,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" ht="15" spans="1:16">
+    <row r="9" ht="14.5" spans="1:16">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1779,7 +1816,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" ht="15" spans="1:16">
+    <row r="10" ht="14.5" spans="1:16">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1797,7 +1834,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" ht="15" spans="1:16">
+    <row r="11" ht="14.5" spans="1:16">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1815,7 +1852,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" ht="15" spans="1:16">
+    <row r="12" ht="14.5" spans="1:16">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1833,7 +1870,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" ht="15" spans="1:16">
+    <row r="13" ht="14.5" spans="1:16">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1851,7 +1888,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" ht="15" spans="1:16">
+    <row r="14" ht="14.5" spans="1:16">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1869,7 +1906,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" ht="15" spans="1:16">
+    <row r="15" ht="14.5" spans="1:16">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1887,7 +1924,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" ht="15" spans="1:16">
+    <row r="16" ht="14.5" spans="1:16">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1905,7 +1942,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" ht="15" spans="1:16">
+    <row r="17" ht="14.5" spans="1:16">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1923,7 +1960,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" ht="15" spans="1:16">
+    <row r="18" ht="14.5" spans="1:16">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1941,7 +1978,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" ht="15" spans="1:16">
+    <row r="19" ht="14.5" spans="1:16">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1959,7 +1996,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" ht="15" spans="1:16">
+    <row r="20" ht="14.5" spans="1:16">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1977,7 +2014,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" ht="15" spans="1:16">
+    <row r="21" ht="14.5" spans="1:16">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1995,7 +2032,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" ht="15" spans="1:16">
+    <row r="22" ht="14.5" spans="1:16">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2013,7 +2050,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" ht="15" spans="1:16">
+    <row r="23" ht="14.5" spans="1:16">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2031,7 +2068,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" ht="15" spans="1:16">
+    <row r="24" ht="14.5" spans="1:16">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2049,7 +2086,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" ht="15" spans="1:11">
+    <row r="25" ht="14.5" spans="1:16">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2061,8 +2098,13 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-    </row>
-    <row r="26" ht="15" spans="1:11">
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" ht="14.5" spans="1:16">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2074,8 +2116,13 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-    </row>
-    <row r="27" ht="15" spans="1:11">
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" ht="14.5" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2088,7 +2135,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" ht="15" spans="1:11">
+    <row r="28" ht="14.5" spans="1:11">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2101,7 +2148,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" ht="15" spans="1:11">
+    <row r="29" ht="14.5" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2114,7 +2161,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" ht="15" spans="1:11">
+    <row r="30" ht="14.5" spans="1:11">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2127,7 +2174,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" ht="15" spans="1:11">
+    <row r="31" ht="14.5" spans="1:11">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2140,7 +2187,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" ht="15" spans="1:11">
+    <row r="32" ht="14.5" spans="1:11">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2153,7 +2200,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" ht="15" spans="1:11">
+    <row r="33" ht="14.5" spans="1:11">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2166,7 +2213,7 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" ht="15" spans="1:11">
+    <row r="34" ht="14.5" spans="1:11">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2179,7 +2226,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" ht="15" spans="1:11">
+    <row r="35" ht="14.5" spans="1:11">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2192,7 +2239,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" ht="15" spans="1:11">
+    <row r="36" ht="14.5" spans="1:11">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2205,7 +2252,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" ht="15" spans="1:11">
+    <row r="37" ht="14.5" spans="1:11">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2218,7 +2265,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" ht="15" spans="1:11">
+    <row r="38" ht="14.5" spans="1:11">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2231,7 +2278,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" ht="15" spans="1:11">
+    <row r="39" ht="14.5" spans="1:11">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2244,7 +2291,7 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" ht="15" spans="1:11">
+    <row r="40" ht="14.5" spans="1:11">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2257,7 +2304,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" ht="15" spans="1:11">
+    <row r="41" ht="14.5" spans="1:11">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2270,7 +2317,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" ht="15" spans="1:11">
+    <row r="42" ht="14.5" spans="1:11">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2283,7 +2330,7 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" ht="15" spans="1:11">
+    <row r="43" ht="14.5" spans="1:11">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2296,7 +2343,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" ht="15" spans="1:11">
+    <row r="44" ht="14.5" spans="1:11">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2309,7 +2356,7 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" ht="15" spans="1:11">
+    <row r="45" ht="14.5" spans="1:11">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2322,7 +2369,7 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" ht="15" spans="1:11">
+    <row r="46" ht="14.5" spans="1:11">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2335,7 +2382,7 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" ht="15" spans="1:11">
+    <row r="47" ht="14.5" spans="1:11">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2348,7 +2395,7 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" ht="15" spans="1:11">
+    <row r="48" ht="14.5" spans="1:11">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2361,7 +2408,7 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" ht="15" spans="1:11">
+    <row r="49" ht="14.5" spans="1:11">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2374,7 +2421,7 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" ht="15" spans="1:11">
+    <row r="50" ht="14.5" spans="1:11">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2387,7 +2434,7 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" ht="15" spans="1:11">
+    <row r="51" ht="14.5" spans="1:11">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2400,7 +2447,7 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" ht="15" spans="1:11">
+    <row r="52" ht="14.5" spans="1:11">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2413,7 +2460,7 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" ht="15" spans="1:11">
+    <row r="53" ht="14.5" spans="1:11">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2426,7 +2473,7 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" ht="15" spans="1:11">
+    <row r="54" ht="14.5" spans="1:11">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2439,7 +2486,7 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" ht="15" spans="1:11">
+    <row r="55" ht="14.5" spans="1:11">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2452,7 +2499,7 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" ht="15" spans="1:11">
+    <row r="56" ht="14.5" spans="1:11">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2465,7 +2512,7 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" ht="15" spans="1:11">
+    <row r="57" ht="14.5" spans="1:11">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2478,7 +2525,7 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" ht="15" spans="1:11">
+    <row r="58" ht="14.5" spans="1:11">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2491,7 +2538,7 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" ht="15" spans="1:11">
+    <row r="59" ht="14.5" spans="1:11">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2504,7 +2551,7 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" ht="15" spans="1:11">
+    <row r="60" ht="14.5" spans="1:11">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2519,7 +2566,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L1:P24"/>
+    <mergeCell ref="L1:P26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="xxx@xxx.com"/>
@@ -2528,7 +2575,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K2:K3" numberStoredAsText="1"/>
+    <ignoredError sqref="K3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2542,7 +2589,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2559,7 +2606,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
